--- a/lesson14/goods.xlsx
+++ b/lesson14/goods.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>name</t>
   </si>
@@ -118,6 +118,9 @@
   </si>
   <si>
     <t>Кофе растворимый</t>
+  </si>
+  <si>
+    <t>Коньяк</t>
   </si>
 </sst>
 </file>
@@ -456,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -731,6 +734,14 @@
         <v>0</v>
       </c>
     </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
